--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_6_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_6_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1152240.288356631</v>
+        <v>1154542.57508725</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1151840.918742178</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14829673.35797656</v>
+        <v>14661612.74404855</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6290060.77378367</v>
+        <v>6345428.125165917</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>146.8920447697784</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>9.891109467671336</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -701,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -759,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="U3" t="n">
-        <v>205.5178444382804</v>
+        <v>46.38724422570589</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>120.0500723064956</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -841,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -865,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1.170977004479167</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="V4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>183.4693513325733</v>
       </c>
       <c r="F5" t="n">
-        <v>205.5178444382804</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>21.16030022554292</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -917,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -941,13 +943,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -978,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>52.60348494601564</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -1029,10 +1031,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>10.6888232390391</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1063,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1078,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>205.5178444382804</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1154,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,10 +1180,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>164.1533724249812</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1212,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1230,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1266,16 +1268,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>200.470795159128</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>120.0500723064956</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1315,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1345,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>181.0201173812374</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="12">
@@ -1452,25 +1454,25 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>87.11878864677688</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1506,16 +1508,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>181.0201173812374</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -1610,25 +1612,25 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>82.46119763909351</v>
       </c>
       <c r="H14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1652,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1670,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1686,19 +1688,19 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1731,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>36.6156848048709</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1783,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1844,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1853,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1889,25 +1891,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>190.3453970742849</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V17" t="n">
-        <v>90.38893773807641</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2041,13 +2043,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2078,31 +2080,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2129,10 +2131,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>88.93311775391589</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2157,22 +2159,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>11.7771493351747</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>123.4225424657643</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2211,10 +2213,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2223,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -2366,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2384,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.234466016111835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2400,13 +2402,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>104.7383832473596</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>138.1723819124904</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2442,16 +2444,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2518,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2527,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U25" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2564,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2597,23 +2599,23 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V26" t="n">
-        <v>102.3382270926889</v>
-      </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="27">
@@ -2634,13 +2636,13 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>55.49566750574714</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2649,13 +2651,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,16 +2684,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
@@ -2700,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2755,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2770,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2801,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
         <v>241.0142888776591</v>
@@ -2810,10 +2812,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
-        <v>202.2946864288972</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2834,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2873,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2886,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>59.24636080559989</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2931,10 +2933,10 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>167.0383293154539</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2956,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2989,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3035,67 +3037,67 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F32" t="n">
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,31 +3107,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>164.1746559739602</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>17.61720206839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3174,7 +3176,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3229,10 +3231,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3250,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3272,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3287,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3308,31 +3310,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>90.38893773807641</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>137.0424786983366</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3354,19 +3356,19 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>86.93468111259986</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3512,10 +3514,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>21.85442600983729</v>
       </c>
       <c r="H38" t="n">
         <v>241.0142888776591</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3563,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3582,16 +3584,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>49.98213474053743</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3627,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>31.24017141215208</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3667,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3700,13 +3702,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>44.30348359856706</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3737,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3794,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,22 +3818,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3840,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,19 +3866,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>151.9979962458027</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -3885,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>190.0919981392954</v>
       </c>
     </row>
     <row r="43">
@@ -3916,13 +3918,13 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>181.0201173812374</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>21.18375537072436</v>
       </c>
     </row>
     <row r="45">
@@ -4056,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4074,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -4104,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>8.051864102726121</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>205.5178444382804</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>180.2735260549796</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4192,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>199.2900309704538</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="C2" t="n">
-        <v>50.91422817269779</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="D2" t="n">
-        <v>50.91422817269779</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="E2" t="n">
-        <v>50.91422817269779</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="F2" t="n">
-        <v>43.96872742349432</v>
+        <v>31.80830218922787</v>
       </c>
       <c r="G2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="H2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="I2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>119.4564334659848</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="N2" t="n">
-        <v>706.4576170384386</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P2" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="S2" t="n">
-        <v>614.4775954922324</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="T2" t="n">
-        <v>614.4775954922324</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="U2" t="n">
-        <v>614.4775954922324</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="V2" t="n">
-        <v>614.4775954922324</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="W2" t="n">
-        <v>614.4775954922324</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="X2" t="n">
-        <v>614.4775954922324</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="Y2" t="n">
-        <v>406.8838132313431</v>
+        <v>41.79932185354235</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.44142755506243</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="C3" t="n">
-        <v>16.44142755506243</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="D3" t="n">
-        <v>16.44142755506243</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="E3" t="n">
-        <v>16.44142755506243</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="F3" t="n">
-        <v>16.44142755506243</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="G3" t="n">
-        <v>16.44142755506243</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="H3" t="n">
-        <v>16.44142755506243</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="I3" t="n">
-        <v>16.44142755506243</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="J3" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L3" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="M3" t="n">
-        <v>219.90409354896</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="N3" t="n">
-        <v>423.3667595428576</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="Q3" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="S3" t="n">
-        <v>547.4845037566762</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="T3" t="n">
-        <v>345.2979091154422</v>
+        <v>51.89093722176946</v>
       </c>
       <c r="U3" t="n">
-        <v>137.7041268545529</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="V3" t="n">
-        <v>137.7041268545529</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="W3" t="n">
-        <v>137.7041268545529</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="X3" t="n">
-        <v>16.44142755506243</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.44142755506243</v>
+        <v>5.035134973581694</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.44142755506243</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44142755506243</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="D4" t="n">
-        <v>16.44142755506243</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="E4" t="n">
-        <v>16.44142755506243</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="F4" t="n">
-        <v>16.44142755506243</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44142755506243</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="H4" t="n">
-        <v>16.44142755506243</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="I4" t="n">
-        <v>16.44142755506243</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="K4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L4" t="n">
-        <v>43.75555256277541</v>
+        <v>31.59512732850896</v>
       </c>
       <c r="M4" t="n">
-        <v>82.94359075499759</v>
+        <v>70.78316552073113</v>
       </c>
       <c r="N4" t="n">
-        <v>126.6344414104339</v>
+        <v>114.4740161761674</v>
       </c>
       <c r="O4" t="n">
-        <v>150.9737180453332</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="Q4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="R4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="S4" t="n">
-        <v>148.224788009872</v>
+        <v>134.8815577205762</v>
       </c>
       <c r="T4" t="n">
-        <v>148.224788009872</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="U4" t="n">
-        <v>148.224788009872</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="V4" t="n">
-        <v>16.44142755506243</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="W4" t="n">
-        <v>16.44142755506243</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="X4" t="n">
-        <v>16.44142755506243</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.44142755506243</v>
+        <v>26.77543850855644</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>245.4092504478133</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C5" t="n">
-        <v>245.4092504478133</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D5" t="n">
-        <v>245.4092504478133</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E5" t="n">
-        <v>245.4092504478133</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="F5" t="n">
-        <v>37.81546818692397</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G5" t="n">
-        <v>16.44142755506243</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>16.44142755506243</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>16.44142755506243</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>706.4576170384386</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>811.9797623848946</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>660.5968149695918</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>660.5968149695918</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>453.0030327087026</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>453.0030327087026</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>453.0030327087026</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>453.0030327087026</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>453.0030327087026</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y5" t="n">
-        <v>245.4092504478133</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.9018483060073</v>
+        <v>416.1069178844125</v>
       </c>
       <c r="C6" t="n">
-        <v>720.9018483060073</v>
+        <v>416.1069178844125</v>
       </c>
       <c r="D6" t="n">
-        <v>571.967438644756</v>
+        <v>416.1069178844125</v>
       </c>
       <c r="E6" t="n">
-        <v>412.7299836393005</v>
+        <v>256.869462878957</v>
       </c>
       <c r="F6" t="n">
-        <v>359.5951503604969</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G6" t="n">
-        <v>220.8643249431123</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
-        <v>107.4951893506917</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>548.724319600695</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>752.1869855945927</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
-        <v>752.1869855945927</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>720.9018483060073</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V6" t="n">
-        <v>720.9018483060073</v>
+        <v>623.8672166493664</v>
       </c>
       <c r="W6" t="n">
-        <v>720.9018483060073</v>
+        <v>623.8672166493664</v>
       </c>
       <c r="X6" t="n">
-        <v>720.9018483060073</v>
+        <v>623.8672166493664</v>
       </c>
       <c r="Y6" t="n">
-        <v>720.9018483060073</v>
+        <v>416.1069178844125</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>63.94135112442973</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>63.94135112442973</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>63.94135112442973</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>63.94135112442973</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>63.94135112442973</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>63.94135112442973</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S7" t="n">
-        <v>63.94135112442973</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T7" t="n">
-        <v>63.94135112442973</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U7" t="n">
-        <v>63.94135112442973</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V7" t="n">
-        <v>63.94135112442973</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
-        <v>63.94135112442973</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>63.94135112442973</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>63.94135112442973</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>230.9807105651552</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C8" t="n">
-        <v>230.9807105651552</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D8" t="n">
-        <v>230.9807105651552</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E8" t="n">
-        <v>230.9807105651552</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F8" t="n">
-        <v>224.0352098159517</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>16.44142755506243</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>16.44142755506243</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>811.9797623848946</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>811.9797623848946</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>604.3859801240053</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>604.3859801240053</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>604.3859801240053</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>604.3859801240053</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>604.3859801240053</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X8" t="n">
-        <v>438.5744928260445</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y8" t="n">
-        <v>438.5744928260445</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.44142755506243</v>
+        <v>284.787934186969</v>
       </c>
       <c r="C9" t="n">
-        <v>16.44142755506243</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D9" t="n">
-        <v>16.44142755506243</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E9" t="n">
-        <v>16.44142755506243</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F9" t="n">
-        <v>16.44142755506243</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G9" t="n">
-        <v>16.44142755506243</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H9" t="n">
-        <v>16.44142755506243</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>16.44142755506243</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>219.90409354896</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>423.3667595428576</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
-        <v>626.8294255367553</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>626.8294255367553</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>547.4845037566762</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>345.2979091154422</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>137.7041268545529</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V9" t="n">
-        <v>137.7041268545529</v>
+        <v>284.787934186969</v>
       </c>
       <c r="W9" t="n">
-        <v>137.7041268545529</v>
+        <v>284.787934186969</v>
       </c>
       <c r="X9" t="n">
-        <v>16.44142755506243</v>
+        <v>284.787934186969</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.44142755506243</v>
+        <v>284.787934186969</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W10" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X10" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.44142755506243</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>16.44142755506243</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>196.517279139721</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>399.9799451336186</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>603.4426111275161</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>752.6375612701642</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>614.4775954922324</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>406.8838132313431</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>199.2900309704538</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>16.44142755506243</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W11" t="n">
-        <v>16.44142755506243</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X11" t="n">
-        <v>16.44142755506243</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.44142755506243</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.44142755506243</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="C12" t="n">
-        <v>16.44142755506243</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>16.44142755506243</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>219.90409354896</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>219.90409354896</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N12" t="n">
-        <v>366.5706756325438</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>614.4775954922324</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W12" t="n">
-        <v>406.8838132313431</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X12" t="n">
-        <v>224.0352098159517</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.44142755506243</v>
+        <v>756.2056553051034</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="D14" t="n">
-        <v>639.2227743377304</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="E14" t="n">
-        <v>431.628992076841</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="F14" t="n">
-        <v>224.0352098159517</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="G14" t="n">
-        <v>224.0352098159517</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H14" t="n">
-        <v>16.44142755506243</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I14" t="n">
-        <v>16.44142755506243</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J14" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>85.87524403801982</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>265.9510956226784</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>469.413761616576</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>672.8764276104736</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>822.0713777531216</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>358.0940480307835</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>785.0858375461813</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C15" t="n">
-        <v>610.6328082650543</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D15" t="n">
-        <v>461.6983986038031</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E15" t="n">
-        <v>302.4609435983476</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F15" t="n">
-        <v>155.9263856252326</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G15" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H15" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2616536067974</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>548.724319600695</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>548.724319600695</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O15" t="n">
-        <v>639.4279001397708</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T15" t="n">
-        <v>785.0858375461813</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U15" t="n">
-        <v>785.0858375461813</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V15" t="n">
-        <v>785.0858375461813</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W15" t="n">
-        <v>785.0858375461813</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X15" t="n">
-        <v>785.0858375461813</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y15" t="n">
-        <v>785.0858375461813</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H16" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I16" t="n">
-        <v>16.44142755506243</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J16" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.35113235729608</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C17" t="n">
-        <v>31.35113235729608</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D17" t="n">
-        <v>31.35113235729608</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E17" t="n">
-        <v>31.35113235729608</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F17" t="n">
         <v>31.35113235729608</v>
@@ -5537,28 +5539,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V17" t="n">
-        <v>31.35113235729608</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W17" t="n">
-        <v>31.35113235729608</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X17" t="n">
-        <v>31.35113235729608</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.35113235729608</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="18">
@@ -5598,19 +5600,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M18" t="n">
-        <v>542.809531908403</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N18" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5689,34 +5691,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5779,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>712.7511606524439</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T20" t="n">
-        <v>487.4018176583718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U20" t="n">
-        <v>487.4018176583718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V20" t="n">
-        <v>487.4018176583718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>487.4018176583718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>487.4018176583718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>487.4018176583718</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>588.4532163200711</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C21" t="n">
-        <v>588.4532163200711</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D21" t="n">
-        <v>463.7839815061678</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5835,19 +5837,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5859,22 +5861,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>588.4532163200711</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>588.4532163200711</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V21" t="n">
-        <v>588.4532163200711</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W21" t="n">
-        <v>588.4532163200711</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="X21" t="n">
-        <v>588.4532163200711</v>
+        <v>354.5646924921614</v>
       </c>
       <c r="Y21" t="n">
-        <v>588.4532163200711</v>
+        <v>354.5646924921614</v>
       </c>
     </row>
     <row r="22">
@@ -5944,16 +5946,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C23" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D23" t="n">
-        <v>31.35113235729608</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E23" t="n">
-        <v>31.35113235729608</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F23" t="n">
-        <v>31.35113235729608</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G23" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729608</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I23" t="n">
         <v>31.35113235729608</v>
@@ -6014,25 +6016,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>274.7999090013961</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>125.0774898247174</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="C24" t="n">
-        <v>125.0774898247174</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>305.3837636211968</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6069,49 +6071,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>588.4532163200711</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U24" t="n">
-        <v>360.2295980564601</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V24" t="n">
-        <v>125.0774898247174</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W24" t="n">
-        <v>125.0774898247174</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="X24" t="n">
-        <v>125.0774898247174</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="Y24" t="n">
-        <v>125.0774898247174</v>
+        <v>454.3181732824481</v>
       </c>
     </row>
     <row r="25">
@@ -6166,16 +6168,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
         <v>19.28114311021272</v>
@@ -6200,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W26" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X26" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>512.8480801015824</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>338.3950508204554</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>189.4606411592041</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6315,10 +6317,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6330,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>726.1056462496665</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>497.8820279860555</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W27" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="28">
@@ -6403,19 +6405,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
         <v>19.28114311021272</v>
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C29" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D29" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E29" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F29" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G29" t="n">
-        <v>467.067986854209</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H29" t="n">
-        <v>223.6192102101089</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y29" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>110.334904905842</v>
+        <v>344.6327430815143</v>
       </c>
       <c r="C30" t="n">
-        <v>110.334904905842</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="D30" t="n">
-        <v>110.334904905842</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="E30" t="n">
-        <v>110.334904905842</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="F30" t="n">
-        <v>110.334904905842</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="G30" t="n">
-        <v>110.334904905842</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="H30" t="n">
         <v>110.334904905842</v>
@@ -6546,46 +6548,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W30" t="n">
-        <v>694.1620408963968</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X30" t="n">
-        <v>486.3105406908639</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y30" t="n">
-        <v>278.55024192591</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="31">
@@ -6595,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E31" t="n">
         <v>19.28114311021272</v>
@@ -6637,34 +6639,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6731,19 +6733,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>489.203140025706</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="C33" t="n">
-        <v>314.750110744579</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="D33" t="n">
-        <v>165.8157010833278</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="E33" t="n">
-        <v>165.8157010833278</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6786,43 +6788,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X33" t="n">
-        <v>655.0361258579891</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y33" t="n">
-        <v>655.0361258579891</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E35" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>591.4512093066566</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T35" t="n">
-        <v>366.1018663125844</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U35" t="n">
-        <v>274.7999090013961</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V35" t="n">
-        <v>274.7999090013961</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W35" t="n">
-        <v>31.35113235729608</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
-        <v>31.35113235729608</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>445.8341334011449</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="C36" t="n">
-        <v>271.3811041200179</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="D36" t="n">
-        <v>271.3811041200179</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E36" t="n">
-        <v>271.3811041200179</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F36" t="n">
-        <v>271.3811041200179</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7023,10 +7025,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="M36" t="n">
-        <v>383.2428491569326</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N36" t="n">
-        <v>621.8469951458151</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
         <v>781.4136778972854</v>
@@ -7041,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>876.2443463059899</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>674.0577516647559</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>445.8341334011449</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>445.8341334011449</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>445.8341334011449</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X36" t="n">
-        <v>445.8341334011449</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y36" t="n">
-        <v>445.8341334011449</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I37" t="n">
         <v>829.5248650203655</v>
@@ -7138,7 +7140,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C38" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="D38" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="E38" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="F38" t="n">
-        <v>730.8505943024719</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="G38" t="n">
         <v>487.4018176583718</v>
@@ -7199,25 +7201,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>552.3930418464681</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>377.9400125653411</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>229.0056029040899</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>69.76814789863437</v>
       </c>
       <c r="F39" t="n">
         <v>19.28114311021272</v>
@@ -7257,7 +7259,7 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>144.6387031680501</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M39" t="n">
         <v>234.810827406191</v>
@@ -7275,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>831.3318973643784</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>831.3318973643784</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>603.1082791007675</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>603.1082791007675</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W39" t="n">
-        <v>603.1082791007675</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X39" t="n">
-        <v>395.2567788952347</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y39" t="n">
-        <v>187.4964801302808</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="40">
@@ -7306,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
         <v>829.5248650203655</v>
@@ -7348,34 +7350,34 @@
         <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.44142755506243</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>16.44142755506243</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>822.0713777531216</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>614.4775954922324</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>614.4775954922324</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W41" t="n">
-        <v>614.4775954922324</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X41" t="n">
-        <v>406.8838132313431</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y41" t="n">
-        <v>199.2900309704538</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>460.9442659510175</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="C42" t="n">
-        <v>460.9442659510175</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="D42" t="n">
-        <v>460.9442659510175</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E42" t="n">
-        <v>301.706810945562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>155.1722529724469</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>219.90409354896</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>366.5706756325438</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>366.5706756325438</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>570.0333416264414</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>752.6768192397923</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T42" t="n">
-        <v>668.5380482119068</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U42" t="n">
-        <v>668.5380482119068</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V42" t="n">
-        <v>460.9442659510175</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W42" t="n">
-        <v>460.9442659510175</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X42" t="n">
-        <v>460.9442659510175</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y42" t="n">
-        <v>460.9442659510175</v>
+        <v>670.8755067309003</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I43" t="n">
-        <v>16.44142755506243</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="J43" t="n">
-        <v>16.44142755506243</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L43" t="n">
-        <v>43.75555256277541</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M43" t="n">
-        <v>82.94359075499759</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N43" t="n">
-        <v>126.6344414104339</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>224.0352098159517</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>706.4576170384386</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>822.0713777531216</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>639.2227743377304</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T44" t="n">
-        <v>639.2227743377304</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U44" t="n">
-        <v>431.628992076841</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V44" t="n">
-        <v>431.628992076841</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W44" t="n">
-        <v>431.628992076841</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X44" t="n">
-        <v>431.628992076841</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y44" t="n">
-        <v>224.0352098159517</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>17.19556020784815</v>
+        <v>284.787934186969</v>
       </c>
       <c r="C45" t="n">
-        <v>17.19556020784815</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D45" t="n">
-        <v>17.19556020784815</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E45" t="n">
-        <v>17.19556020784815</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F45" t="n">
-        <v>17.19556020784815</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G45" t="n">
-        <v>17.19556020784815</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H45" t="n">
-        <v>17.19556020784815</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I45" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>16.44142755506243</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>163.1080096386462</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5706756325438</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>955.9239594472765</v>
       </c>
       <c r="T45" t="n">
-        <v>822.0713777531216</v>
+        <v>955.9239594472765</v>
       </c>
       <c r="U45" t="n">
-        <v>822.0713777531216</v>
+        <v>727.7003411836656</v>
       </c>
       <c r="V45" t="n">
-        <v>614.4775954922324</v>
+        <v>492.5482329519229</v>
       </c>
       <c r="W45" t="n">
-        <v>406.8838132313431</v>
+        <v>492.5482329519229</v>
       </c>
       <c r="X45" t="n">
-        <v>199.2900309704538</v>
+        <v>492.5482329519229</v>
       </c>
       <c r="Y45" t="n">
-        <v>17.19556020784815</v>
+        <v>284.787934186969</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>714.8532122705639</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>754.041250462786</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>797.7321011182223</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>822.0713777531216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>281.6966398529821</v>
       </c>
       <c r="N2" t="n">
-        <v>434.9309080348713</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>256.3140754849514</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>284.7455247652193</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8064,19 +8066,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>195.6465629319681</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>182.6921187090427</v>
       </c>
       <c r="O3" t="n">
-        <v>290.7443071551351</v>
+        <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>193.4943030959713</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8222,13 +8224,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8298,19 +8300,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>336.8595565216137</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P6" t="n">
-        <v>134.4691888741278</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8459,10 +8461,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>311.3779718877592</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8532,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>261.0929869123474</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8690,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>301.368163919873</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,19 +8771,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>279.489774794024</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8927,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>290.2250192095839</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9009,19 +9011,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>234.2160227667432</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9164,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9246,22 +9248,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>312.04082470182</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,22 +9485,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9963,13 +9965,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10194,13 +10196,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>312.04082470182</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10434,19 +10436,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>197.6503338623806</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10671,13 +10673,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>303.774711870172</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10905,10 +10907,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M39" t="n">
-        <v>233.2169876979182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -11063,19 +11065,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11142,22 +11144,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>290.282096632709</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11379,22 +11381,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>290.282096632709</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23306,25 +23308,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>146.7321410888975</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="12">
@@ -23340,25 +23342,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>60.32627691786188</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23394,16 +23396,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>24.75286782224003</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23498,25 +23500,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>173.6629242394456</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>201.358201303431</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>332.8415398760416</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23540,10 +23542,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23558,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23574,19 +23576,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23619,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>163.5490438899507</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>247.8610253924609</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23671,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23732,7 +23734,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23741,7 +23743,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
         <v>415.302737515135</v>
@@ -23777,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>237.3633207320585</v>
+        <v>137.40686139585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>49.36645333167576</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23929,13 +23931,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23966,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23981,16 +23983,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24017,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>120.0869518323294</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24045,22 +24047,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>154.7560343146926</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>24.02252309887449</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24099,10 +24101,10 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24111,7 +24113,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24184,7 +24186,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24212,19 +24214,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,13 +24256,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24272,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>377.0034726399418</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24288,13 +24290,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>42.70668231727912</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>19.47269854291059</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24406,7 +24408,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24415,10 +24417,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U25" t="n">
-        <v>239.2941050228172</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24452,7 +24454,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24485,22 +24487,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>225.414031377446</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24509,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24522,13 +24524,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>102.1494129496538</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24537,13 +24539,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24570,16 +24572,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>136.2759056302995</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
@@ -24588,7 +24590,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24643,10 +24645,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24658,7 +24660,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24689,7 +24691,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
         <v>174.288448637476</v>
@@ -24698,10 +24700,10 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
-        <v>8.181203141508689</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24746,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24759,7 +24761,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24774,7 +24776,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>52.98908343089657</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24804,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24819,10 +24821,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>84.65665384546574</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24844,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>15.96843579630763</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24877,7 +24879,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>86.16204325169439</v>
@@ -24889,7 +24891,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
         <v>286.3190293564909</v>
@@ -24923,16 +24925,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24971,19 +24973,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V32" t="n">
-        <v>115.4668728266929</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24993,31 +24995,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.358527675907141</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>127.4520103249939</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25062,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25117,10 +25119,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434959</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25138,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25160,10 +25162,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25175,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,31 +25198,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>160.9567151697601</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>286.8247010151207</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25230,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>29.49070495153072</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25242,19 +25244,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,25 +25283,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>84.74848999123796</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25330,7 +25332,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25400,10 +25402,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>393.4483115052977</v>
       </c>
       <c r="H38" t="n">
         <v>98.46051323810809</v>
@@ -25439,7 +25441,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25451,7 +25453,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25470,16 +25472,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>95.08707765284646</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25515,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>140.4429996916857</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25555,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25588,13 +25590,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25625,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>201.7137242822431</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25682,19 +25684,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>164.2132562401886</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,22 +25706,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25728,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,19 +25754,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>48.16673244901895</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -25773,7 +25775,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>15.59069763800895</v>
       </c>
     </row>
     <row r="43">
@@ -25804,13 +25806,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25913,16 +25915,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>27.99995220500799</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>365.0541832853293</v>
       </c>
     </row>
     <row r="45">
@@ -25944,7 +25946,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25962,7 +25964,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25992,25 +25994,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>163.6313070011117</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>27.28274271114486</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>25.4091697223248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26080,10 +26082,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>950779.3244034686</v>
+        <v>939764.9271230983</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>950779.3244034686</v>
+        <v>953351.4182805427</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>950779.3244034686</v>
+        <v>953351.4182805427</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>394700.1895896064</v>
+        <v>415758.950998762</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>394700.1895896065</v>
+        <v>415758.950998762</v>
       </c>
     </row>
     <row r="7">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>415758.950998762</v>
+        <v>415758.9509987622</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>394700.1895896064</v>
+        <v>415758.9509987622</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>394700.1895896065</v>
+        <v>415758.9509987622</v>
       </c>
     </row>
   </sheetData>
@@ -26314,16 +26316,16 @@
         <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
-        <v>205084.9343854111</v>
+        <v>216008.8742907321</v>
       </c>
       <c r="F2" t="n">
-        <v>205084.9343854111</v>
+        <v>216008.874290732</v>
       </c>
       <c r="G2" t="n">
         <v>216008.8742907321</v>
@@ -26350,10 +26352,10 @@
         <v>216008.8742907321</v>
       </c>
       <c r="O2" t="n">
-        <v>205084.9343854111</v>
+        <v>216008.8742907321</v>
       </c>
       <c r="P2" t="n">
-        <v>205084.9343854111</v>
+        <v>216008.8742907321</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68873.75658168984</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>60576.32218666811</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9729.042974167098</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>53772.51089020943</v>
+        <v>14001.23214027929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>48256.95293363261</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>336325.063259138</v>
+        <v>366277.5278986197</v>
       </c>
       <c r="C4" t="n">
-        <v>336325.0632591379</v>
+        <v>329330.531561994</v>
       </c>
       <c r="D4" t="n">
-        <v>336325.0632591379</v>
+        <v>329330.531561994</v>
       </c>
       <c r="E4" t="n">
-        <v>47787.18911168982</v>
+        <v>50385.00392753457</v>
       </c>
       <c r="F4" t="n">
-        <v>47787.18911168983</v>
+        <v>50385.00392753458</v>
       </c>
       <c r="G4" t="n">
         <v>50385.00392753457</v>
@@ -26442,22 +26444,22 @@
         <v>50385.00392753457</v>
       </c>
       <c r="K4" t="n">
-        <v>50385.00392753458</v>
+        <v>50385.00392753457</v>
       </c>
       <c r="L4" t="n">
-        <v>50385.00392753458</v>
+        <v>50385.00392753457</v>
       </c>
       <c r="M4" t="n">
-        <v>50385.00392753456</v>
+        <v>50385.00392753457</v>
       </c>
       <c r="N4" t="n">
         <v>50385.00392753457</v>
       </c>
       <c r="O4" t="n">
-        <v>47787.18911168982</v>
+        <v>50385.00392753458</v>
       </c>
       <c r="P4" t="n">
-        <v>47787.18911168983</v>
+        <v>50385.00392753458</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46123.08494184745</v>
+        <v>36881.16176380494</v>
       </c>
       <c r="C5" t="n">
-        <v>46123.08494184745</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>46123.08494184745</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>82355.24562910909</v>
+        <v>112585.1814899583</v>
       </c>
       <c r="C6" t="n">
-        <v>151229.0022107991</v>
+        <v>95489.02789936028</v>
       </c>
       <c r="D6" t="n">
-        <v>151229.0022107991</v>
+        <v>156065.3500860285</v>
       </c>
       <c r="E6" t="n">
-        <v>144802.2603318738</v>
+        <v>150970.2015994358</v>
       </c>
       <c r="F6" t="n">
-        <v>144802.2603318738</v>
+        <v>150970.2015994358</v>
       </c>
       <c r="G6" t="n">
-        <v>141241.1586252688</v>
+        <v>150970.2015994359</v>
       </c>
       <c r="H6" t="n">
-        <v>150970.2015994359</v>
+        <v>150970.2015994358</v>
       </c>
       <c r="I6" t="n">
-        <v>150970.2015994359</v>
+        <v>150970.2015994358</v>
       </c>
       <c r="J6" t="n">
-        <v>97197.69070922642</v>
+        <v>136968.9694591565</v>
       </c>
       <c r="K6" t="n">
-        <v>150970.2015994359</v>
+        <v>102713.2486658033</v>
       </c>
       <c r="L6" t="n">
         <v>150970.2015994359</v>
       </c>
       <c r="M6" t="n">
-        <v>150970.2015994358</v>
+        <v>150970.2015994359</v>
       </c>
       <c r="N6" t="n">
         <v>150970.2015994359</v>
       </c>
       <c r="O6" t="n">
-        <v>144802.2603318738</v>
+        <v>150970.2015994358</v>
       </c>
       <c r="P6" t="n">
-        <v>144802.2603318738</v>
+        <v>150970.2015994359</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>35.49644443937865</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>35.49644443937865</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>218.3808470012291</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>396.9849362740401</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27421,13 +27423,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27436,16 +27438,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>274.2397294601852</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>295.7284397074633</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>316.2185716685193</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27479,7 +27481,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>46.64530514269338</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>118.1706420938881</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>146.6521996848718</v>
       </c>
       <c r="U3" t="n">
-        <v>20.42353764269441</v>
+        <v>179.5541378552689</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>85.7229128969819</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27561,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27585,16 +27587,16 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>222.8456210324931</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>174.4330604183317</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>232.8065003465411</v>
       </c>
       <c r="V4" t="n">
-        <v>121.6721164735665</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,19 +27618,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>198.4610187396885</v>
       </c>
       <c r="F5" t="n">
-        <v>201.358201303431</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>394.1424372895921</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27637,7 +27639,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27661,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.7200942177732</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27698,19 +27700,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>92.46572744736824</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27749,10 +27751,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>222.1117639103862</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27761,7 +27763,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27783,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>98.39612368925762</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -27798,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,10 +27818,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>66.3759156176843</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.2159972252002</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,10 +27864,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>209.7848930768546</v>
+        <v>374.8264583819999</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27874,7 +27876,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27916,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>205.5777282534878</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27932,7 +27934,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27950,10 +27952,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27986,16 +27988,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>32.32979199029731</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>85.7229128969819</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28035,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28065,13 +28067,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>175.4015535970057</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="N2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>26.21586406326473</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34784,19 +34786,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="N3" t="n">
-        <v>205.5178444382804</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="O3" t="n">
-        <v>148.1480627106907</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,13 +34944,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N5" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35018,19 +35020,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P6" t="n">
-        <v>0.494781459797586</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35179,10 +35181,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>81.03173866048648</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35252,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>205.5178444382804</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N9" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>127.1185794980172</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35410,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P11" t="n">
-        <v>70.1351681646035</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>148.1480627106907</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35647,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>70.13516816460341</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35729,19 +35731,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>91.61977832229879</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35966,22 +35968,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>169.9067907798017</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,22 +36205,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36683,13 +36685,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36914,13 +36916,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>169.9067907798017</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,19 +37156,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>55.51629994036225</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37391,13 +37393,13 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37625,10 +37627,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M39" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37786,16 +37788,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37862,22 +37864,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>148.1480627106907</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38023,16 +38025,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>148.1480627106907</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_6_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_6_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1154542.57508725</v>
+        <v>1085691.278645812</v>
       </c>
     </row>
     <row r="7">
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.0150637259599</v>
       </c>
       <c r="F2" t="n">
-        <v>9.891109467671336</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -706,7 +706,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="V2" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="W2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -743,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>46.38724422570589</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>46.38724422570589</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1.170977004479167</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T4" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="U4" t="n">
-        <v>53.51252900994975</v>
+        <v>23.44046883036203</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>183.4693513325733</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>68.21015448122991</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -943,16 +943,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -983,10 +983,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>54.919360450951</v>
       </c>
       <c r="V6" t="n">
-        <v>10.6888232390391</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>241.0142888776591</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>40.47627913313511</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>68.21015448122991</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1183,10 +1183,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1214,13 +1214,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>200.470795159128</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>23.77158453572567</v>
       </c>
     </row>
     <row r="10">
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1414,13 +1414,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>212.2853856434421</v>
+        <v>84.41978777916125</v>
       </c>
     </row>
     <row r="12">
@@ -1448,31 +1448,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>87.11878864677688</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>17.01742621531817</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1514,10 +1514,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>100.3796369526212</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G14" t="n">
-        <v>82.46119763909351</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,19 +1685,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>143.820854180671</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -1733,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>3.833957768458675</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,70 +1846,70 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T17" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="V17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>190.3453970742849</v>
-      </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1937,16 +1937,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>35.00246782997241</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>63.88882306452221</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2092,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,25 +2128,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>11.7771493351747</v>
+        <v>58.16273101361576</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2222,10 +2222,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2238,61 +2238,61 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2320,61 +2320,61 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J23" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2396,16 +2396,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>25.9365743535337</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>138.1723819124904</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -2444,19 +2444,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2566,10 +2566,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>190.3453970742849</v>
       </c>
     </row>
     <row r="27">
@@ -2636,13 +2636,13 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>55.49566750574714</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2651,13 +2651,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2690,16 +2690,16 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>29.88929839105575</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2809,13 +2809,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2888,10 +2888,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>59.24636080559989</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -2921,16 +2921,16 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>62.11690385378651</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3119,19 +3119,19 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>17.61720206839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3158,25 +3158,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3231,10 +3231,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="35">
@@ -3268,73 +3268,73 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>200.3360962888297</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>62.4162677022923</v>
-      </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>137.0424786983366</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3395,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>34.66067414728066</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3444,40 +3444,40 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3514,64 +3514,64 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>21.85442600983729</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I38" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J38" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,19 +3581,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>49.98213474053743</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3632,19 +3632,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>103.9917919211018</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3702,13 +3702,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>44.30348359856706</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3745,70 +3745,70 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
       <c r="V41" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3875,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>97.34871926419861</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>190.0919981392954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3918,13 +3918,13 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>21.18375537072436</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="45">
@@ -4058,13 +4058,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -4103,25 +4103,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>17.8711052545181</v>
       </c>
       <c r="S45" t="n">
-        <v>8.051864102726121</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4315,7 +4315,7 @@
         <v>41.79932185354235</v>
       </c>
       <c r="E2" t="n">
-        <v>41.79932185354235</v>
+        <v>38.75380293843134</v>
       </c>
       <c r="F2" t="n">
         <v>31.80830218922787</v>
@@ -4333,19 +4333,19 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
+        <v>4.28100232079598</v>
+      </c>
+      <c r="L2" t="n">
         <v>57.25840604064623</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>110.2358097604965</v>
       </c>
-      <c r="M2" t="n">
-        <v>161.0727123199487</v>
-      </c>
       <c r="N2" t="n">
-        <v>161.0727123199487</v>
+        <v>163.2132134803467</v>
       </c>
       <c r="O2" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
@@ -4354,22 +4354,22 @@
         <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>203.9585006715719</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="S2" t="n">
-        <v>203.9585006715719</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9585006715719</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="U2" t="n">
-        <v>203.9585006715719</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="V2" t="n">
-        <v>149.9054410655621</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="W2" t="n">
-        <v>95.85238145955221</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="X2" t="n">
         <v>41.79932185354235</v>
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.035134973581694</v>
+        <v>214.050116039799</v>
       </c>
       <c r="C3" t="n">
-        <v>5.035134973581694</v>
+        <v>214.050116039799</v>
       </c>
       <c r="D3" t="n">
-        <v>5.035134973581694</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="E3" t="n">
-        <v>5.035134973581694</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="F3" t="n">
-        <v>5.035134973581694</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="G3" t="n">
-        <v>5.035134973581694</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="H3" t="n">
         <v>5.035134973581694</v>
@@ -4421,40 +4421,40 @@
         <v>57.25840604064623</v>
       </c>
       <c r="N3" t="n">
-        <v>108.0953086000985</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="O3" t="n">
-        <v>161.0727123199487</v>
+        <v>163.2132134803467</v>
       </c>
       <c r="P3" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>105.9439968277793</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T3" t="n">
-        <v>51.89093722176946</v>
+        <v>214.050116039799</v>
       </c>
       <c r="U3" t="n">
-        <v>5.035134973581694</v>
+        <v>214.050116039799</v>
       </c>
       <c r="V3" t="n">
-        <v>5.035134973581694</v>
+        <v>214.050116039799</v>
       </c>
       <c r="W3" t="n">
-        <v>5.035134973581694</v>
+        <v>214.050116039799</v>
       </c>
       <c r="X3" t="n">
-        <v>5.035134973581694</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.035134973581694</v>
+        <v>214.050116039799</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="C4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="D4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="E4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K4" t="n">
         <v>4.28100232079598</v>
@@ -4515,25 +4515,25 @@
         <v>136.0643627756056</v>
       </c>
       <c r="S4" t="n">
-        <v>134.8815577205762</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="T4" t="n">
-        <v>80.82849811456629</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="U4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="V4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="W4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="X4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="Y4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>710.516763498309</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C5" t="n">
-        <v>467.067986854209</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D5" t="n">
-        <v>467.067986854209</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E5" t="n">
-        <v>281.7454097505996</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>115.7075889192809</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>100.2502782979324</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>100.2502782979324</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X5" t="n">
-        <v>953.9655401424092</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y5" t="n">
-        <v>710.516763498309</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>416.1069178844125</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>416.1069178844125</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>416.1069178844125</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>256.869462878957</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4652,16 +4652,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>634.6640077999109</v>
+        <v>706.3964594037951</v>
       </c>
       <c r="V6" t="n">
-        <v>623.8672166493664</v>
+        <v>471.2443511720524</v>
       </c>
       <c r="W6" t="n">
-        <v>623.8672166493664</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="X6" t="n">
-        <v>623.8672166493664</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y6" t="n">
-        <v>416.1069178844125</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>559.1338160830064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C8" t="n">
-        <v>315.6850394389064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D8" t="n">
-        <v>315.6850394389064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E8" t="n">
-        <v>315.6850394389064</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F8" t="n">
-        <v>72.23626279480629</v>
+        <v>115.7075889192809</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>100.2502782979324</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>100.2502782979324</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4831,25 +4831,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V8" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W8" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X8" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y8" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>284.787934186969</v>
+        <v>268.8182272585117</v>
       </c>
       <c r="C9" t="n">
-        <v>110.334904905842</v>
+        <v>268.8182272585117</v>
       </c>
       <c r="D9" t="n">
-        <v>110.334904905842</v>
+        <v>268.8182272585117</v>
       </c>
       <c r="E9" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F9" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G9" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4889,46 +4889,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>487.2836868729568</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>284.787934186969</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>284.787934186969</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X9" t="n">
-        <v>284.787934186969</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="Y9" t="n">
-        <v>284.787934186969</v>
+        <v>268.8182272585117</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
         <v>41.77557929797318</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C11" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="C11" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
         <v>19.28114311021272</v>
@@ -5062,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V11" t="n">
-        <v>720.6083788665362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W11" t="n">
-        <v>477.1596022224361</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X11" t="n">
-        <v>477.1596022224361</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y11" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>756.2056553051034</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C12" t="n">
-        <v>756.2056553051034</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D12" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5129,16 +5129,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5147,25 +5147,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>946.8678361012239</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>946.8678361012239</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="V12" t="n">
-        <v>964.0571555106362</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="X12" t="n">
-        <v>756.2056553051034</v>
+        <v>718.6442178376129</v>
       </c>
       <c r="Y12" t="n">
-        <v>756.2056553051034</v>
+        <v>510.883919072659</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5232,19 +5232,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>358.0940480307835</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C14" t="n">
-        <v>358.0940480307835</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D14" t="n">
-        <v>358.0940480307835</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E14" t="n">
-        <v>358.0940480307835</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F14" t="n">
-        <v>114.6452713866835</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G14" t="n">
         <v>31.35113235729608</v>
@@ -5308,22 +5308,22 @@
         <v>601.5428246748836</v>
       </c>
       <c r="T14" t="n">
-        <v>601.5428246748836</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U14" t="n">
-        <v>601.5428246748836</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V14" t="n">
-        <v>601.5428246748836</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W14" t="n">
-        <v>601.5428246748836</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X14" t="n">
-        <v>358.0940480307835</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y14" t="n">
-        <v>358.0940480307835</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20.03527576299844</v>
+        <v>590.5599471655395</v>
       </c>
       <c r="C15" t="n">
-        <v>20.03527576299844</v>
+        <v>416.1069178844125</v>
       </c>
       <c r="D15" t="n">
-        <v>20.03527576299844</v>
+        <v>416.1069178844125</v>
       </c>
       <c r="E15" t="n">
-        <v>20.03527576299844</v>
+        <v>256.869462878957</v>
       </c>
       <c r="F15" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G15" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H15" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I15" t="n">
         <v>20.03527576299844</v>
@@ -5366,13 +5366,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N15" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
         <v>964.0571555106362</v>
@@ -5381,28 +5381,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V15" t="n">
-        <v>23.90796037760316</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W15" t="n">
-        <v>20.03527576299844</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X15" t="n">
-        <v>20.03527576299844</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="Y15" t="n">
-        <v>20.03527576299844</v>
+        <v>735.8335372470253</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5478,10 +5478,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>518.2486856454962</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="C17" t="n">
-        <v>274.7999090013961</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="D17" t="n">
-        <v>274.7999090013961</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E17" t="n">
-        <v>274.7999090013961</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="F17" t="n">
-        <v>31.35113235729608</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="G17" t="n">
-        <v>31.35113235729608</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="H17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T17" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U17" t="n">
-        <v>953.9655401424092</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V17" t="n">
-        <v>761.6974622895962</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="W17" t="n">
-        <v>761.6974622895962</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="X17" t="n">
-        <v>518.2486856454962</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="Y17" t="n">
-        <v>518.2486856454962</v>
+        <v>40.6788758079141</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5600,10 +5600,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
         <v>473.4149733950735</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V18" t="n">
-        <v>259.0600686093459</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W18" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5691,34 +5691,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5740,7 +5740,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5776,22 +5776,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
         <v>506.1786963984129</v>
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>342.668582052591</v>
+        <v>332.4649978087242</v>
       </c>
       <c r="C21" t="n">
-        <v>168.215552771464</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5837,13 +5837,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N21" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
         <v>712.019119383956</v>
@@ -5855,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>562.4161926976942</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V21" t="n">
-        <v>562.4161926976942</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W21" t="n">
-        <v>562.4161926976942</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="X21" t="n">
-        <v>354.5646924921614</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="Y21" t="n">
-        <v>354.5646924921614</v>
+        <v>391.2152311558108</v>
       </c>
     </row>
     <row r="22">
@@ -5940,22 +5940,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C23" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D23" t="n">
-        <v>964.0571555106362</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E23" t="n">
-        <v>720.6083788665362</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F23" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y23" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="24">
@@ -6044,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>454.3181732824481</v>
+        <v>192.0142610363921</v>
       </c>
       <c r="C24" t="n">
-        <v>454.3181732824481</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D24" t="n">
-        <v>305.3837636211968</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E24" t="n">
         <v>165.8157010833278</v>
@@ -6071,13 +6071,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M24" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N24" t="n">
         <v>473.4149733950735</v>
@@ -6092,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>689.4702815141908</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>689.4702815141908</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V24" t="n">
-        <v>454.3181732824481</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W24" t="n">
-        <v>454.3181732824481</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X24" t="n">
-        <v>454.3181732824481</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y24" t="n">
-        <v>454.3181732824481</v>
+        <v>360.2295980564601</v>
       </c>
     </row>
     <row r="25">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>233.7108255783361</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C26" t="n">
-        <v>233.7108255783361</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D26" t="n">
-        <v>233.7108255783361</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E26" t="n">
-        <v>233.7108255783361</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y26" t="n">
-        <v>477.1596022224361</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>512.8480801015824</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>338.3950508204554</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>189.4606411592041</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6320,10 +6320,10 @@
         <v>726.4525409563269</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6338,19 +6338,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>720.6083788665362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>720.6083788665362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y27" t="n">
-        <v>512.8480801015824</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F28" t="n">
         <v>19.28114311021272</v>
@@ -6420,16 +6420,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F29" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6505,10 +6505,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>344.6327430815143</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C30" t="n">
-        <v>170.1797138003873</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>170.1797138003873</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>170.1797138003873</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>170.1797138003873</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>170.1797138003873</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
         <v>20.03527576299844</v>
@@ -6545,22 +6545,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6569,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>901.3128081835791</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>901.3128081835791</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>673.0891899199682</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>437.9370816882255</v>
       </c>
       <c r="W30" t="n">
-        <v>720.6083788665362</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="X30" t="n">
-        <v>720.6083788665362</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="Y30" t="n">
-        <v>512.8480801015824</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="31">
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
         <v>19.28114311021272</v>
@@ -6639,34 +6639,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6733,19 +6733,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>380.2300195200815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>380.2300195200815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>380.2300195200815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>380.2300195200815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6788,16 +6788,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>712.019119383956</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6806,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W33" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X33" t="n">
-        <v>756.2056553051034</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
-        <v>548.4453565401495</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>877.0247885897328</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D35" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6961,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>812.6742080953335</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V35" t="n">
-        <v>812.6742080953335</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X35" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="36">
@@ -6992,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5698337361135</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C36" t="n">
-        <v>166.5698337361135</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>166.5698337361135</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>166.5698337361135</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
         <v>20.03527576299844</v>
@@ -7022,10 +7022,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
         <v>542.809531908403</v>
@@ -7043,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>929.0463735436861</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>726.8597789024521</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>498.6361606388412</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>263.4840524070985</v>
       </c>
       <c r="W36" t="n">
-        <v>720.6083788665362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X36" t="n">
-        <v>512.7568786610034</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y36" t="n">
-        <v>304.9965798960495</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>509.4769954460863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>509.4769954460863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>509.4769954460863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E38" t="n">
-        <v>509.4769954460863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>509.4769954460863</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7201,25 +7201,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V38" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>509.4769954460863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X38" t="n">
-        <v>509.4769954460863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
-        <v>509.4769954460863</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7229,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>552.3930418464681</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C39" t="n">
-        <v>377.9400125653411</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>229.0056029040899</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>69.76814789863437</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>234.810827406191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M39" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P39" t="n">
         <v>894.6625969973069</v>
@@ -7280,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W39" t="n">
-        <v>720.6083788665362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X39" t="n">
-        <v>720.6083788665362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y39" t="n">
-        <v>720.6083788665362</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>874.2758585542716</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C41" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F41" t="n">
         <v>19.28114311021272</v>
@@ -7444,19 +7444,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V41" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W41" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X41" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>502.6601697108322</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="C42" t="n">
-        <v>328.2071404297052</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D42" t="n">
         <v>179.2727307684539</v>
@@ -7496,46 +7496,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>862.8876260635219</v>
+        <v>865.7251158498295</v>
       </c>
       <c r="V42" t="n">
-        <v>862.8876260635219</v>
+        <v>630.5730076180869</v>
       </c>
       <c r="W42" t="n">
-        <v>862.8876260635219</v>
+        <v>387.1242309739868</v>
       </c>
       <c r="X42" t="n">
-        <v>862.8876260635219</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="Y42" t="n">
-        <v>670.8755067309003</v>
+        <v>179.2727307684539</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
         <v>19.28114311021272</v>
@@ -7675,25 +7675,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V44" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W44" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X44" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>284.787934186969</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="C45" t="n">
-        <v>110.334904905842</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="D45" t="n">
-        <v>110.334904905842</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E45" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
         <v>20.03527576299844</v>
@@ -7733,46 +7733,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M45" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N45" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>946.005534041426</v>
       </c>
       <c r="S45" t="n">
-        <v>955.9239594472765</v>
+        <v>946.005534041426</v>
       </c>
       <c r="T45" t="n">
-        <v>955.9239594472765</v>
+        <v>743.818939400192</v>
       </c>
       <c r="U45" t="n">
-        <v>727.7003411836656</v>
+        <v>743.818939400192</v>
       </c>
       <c r="V45" t="n">
-        <v>492.5482329519229</v>
+        <v>743.818939400192</v>
       </c>
       <c r="W45" t="n">
-        <v>492.5482329519229</v>
+        <v>743.818939400192</v>
       </c>
       <c r="X45" t="n">
-        <v>492.5482329519229</v>
+        <v>535.9674391946592</v>
       </c>
       <c r="Y45" t="n">
-        <v>284.787934186969</v>
+        <v>328.2071404297052</v>
       </c>
     </row>
     <row r="46">
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>273.6023800549303</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
         <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
-        <v>281.6966398529821</v>
+        <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>281.4486180473961</v>
       </c>
       <c r="P2" t="n">
-        <v>284.7455247652193</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8069,16 +8069,16 @@
         <v>195.6465629319681</v>
       </c>
       <c r="N3" t="n">
-        <v>182.6921187090427</v>
+        <v>184.8542410932831</v>
       </c>
       <c r="O3" t="n">
         <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>185.3248140400396</v>
       </c>
       <c r="Q3" t="n">
-        <v>193.4943030959713</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,19 +8300,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8537,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,10 +8777,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N12" t="n">
-        <v>231.1529892133073</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9014,16 +9014,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O15" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9248,13 +9248,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>233.2169876979182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9485,16 +9485,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N21" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9719,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N24" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9968,13 +9968,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>312.5053919605859</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,13 +10193,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10436,19 +10436,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10670,13 +10670,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>303.312501347746</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10904,13 +10904,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>229.6373335557741</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
@@ -10919,7 +10919,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11144,13 +11144,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11381,22 +11381,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23272,7 +23272,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23302,13 +23302,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23317,16 +23317,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>173.9525530126115</v>
+        <v>301.8181508768923</v>
       </c>
     </row>
     <row r="12">
@@ -23336,31 +23336,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>60.32627691786188</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23387,13 +23387,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>154.6657448885197</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23402,10 +23402,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>282.3542047108594</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23506,10 +23506,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>332.8415398760416</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23560,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23573,19 +23573,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>22.71232946919636</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>137.3435171632106</v>
@@ -23594,7 +23594,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>247.8610253924609</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23734,7 +23734,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23743,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>318.2910467450428</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,28 +23776,28 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>137.40686139585</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23825,16 +23825,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>102.3410493332382</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>136.2759056302994</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>49.36645333167576</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23931,7 +23931,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
         <v>86.16204325169439</v>
@@ -23949,7 +23949,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23980,10 +23980,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>138.6760617849701</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24047,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>154.7560343146926</v>
+        <v>108.3704526362516</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24062,7 +24062,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24110,10 +24110,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24180,7 +24180,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24208,28 +24208,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>204.5813593128142</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24262,7 +24262,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>146.771924634782</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>19.47269854291059</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -24332,19 +24332,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24454,10 +24454,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>194.5906600982693</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24466,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24502,7 +24502,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>195.8925415817687</v>
       </c>
     </row>
     <row r="27">
@@ -24524,13 +24524,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>102.1494129496538</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24539,13 +24539,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24578,16 +24578,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>175.8836868124217</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G28" t="n">
         <v>167.9909793584588</v>
@@ -24660,7 +24660,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24697,13 +24697,13 @@
         <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24776,10 +24776,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>52.98908343089657</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,16 +24809,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>109.5662672500513</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
@@ -24827,7 +24827,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>15.96843579630763</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24879,7 +24879,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
         <v>86.16204325169439</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24925,13 +24925,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24973,19 +24973,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25007,19 +25007,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>127.4520103249939</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25046,25 +25046,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25119,10 +25119,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>130.2684670434959</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="35">
@@ -25156,16 +25156,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25177,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25210,19 +25210,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>51.00955661900684</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>286.8247010151207</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>29.49070495153072</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25244,7 +25244,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25283,25 +25283,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>137.0224969565572</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25332,7 +25332,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25365,7 +25365,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25402,19 +25402,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>393.4483115052977</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25453,13 +25453,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25469,19 +25469,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>95.08707765284646</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25520,19 +25520,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>147.7031912398178</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25554,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25590,13 +25590,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25633,13 +25633,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25684,19 +25684,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
-        <v>115.4668728266929</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25706,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25763,19 +25763,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>128.5926628167762</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>15.59069763800895</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25806,13 +25806,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25876,10 +25876,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25915,16 +25915,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>365.0541832853293</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="45">
@@ -25946,13 +25946,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25964,7 +25964,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,25 +25991,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>82.28672889812503</v>
       </c>
       <c r="S45" t="n">
-        <v>163.6313070011117</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>415758.950998762</v>
+        <v>415758.9509987622</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>415758.950998762</v>
+        <v>415758.9509987622</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>415758.9509987622</v>
+        <v>415758.9509987619</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>415758.950998762</v>
+        <v>415758.9509987622</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>415758.9509987622</v>
+        <v>415758.950998762</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>415758.9509987622</v>
+        <v>415758.950998762</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>415758.9509987622</v>
+        <v>415758.950998762</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>415758.9509987622</v>
+        <v>415758.950998762</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117841</v>
@@ -26325,10 +26325,10 @@
         <v>216008.8742907321</v>
       </c>
       <c r="F2" t="n">
+        <v>216008.8742907321</v>
+      </c>
+      <c r="G2" t="n">
         <v>216008.874290732</v>
-      </c>
-      <c r="G2" t="n">
-        <v>216008.8742907321</v>
       </c>
       <c r="H2" t="n">
         <v>216008.8742907321</v>
@@ -26346,7 +26346,7 @@
         <v>216008.8742907321</v>
       </c>
       <c r="M2" t="n">
-        <v>216008.8742907321</v>
+        <v>216008.874290732</v>
       </c>
       <c r="N2" t="n">
         <v>216008.8742907321</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>366277.5278986197</v>
+        <v>366277.5278986196</v>
       </c>
       <c r="C4" t="n">
         <v>329330.531561994</v>
@@ -26432,13 +26432,13 @@
         <v>50385.00392753458</v>
       </c>
       <c r="G4" t="n">
+        <v>50385.00392753458</v>
+      </c>
+      <c r="H4" t="n">
         <v>50385.00392753457</v>
       </c>
-      <c r="H4" t="n">
-        <v>50385.00392753458</v>
-      </c>
       <c r="I4" t="n">
-        <v>50385.00392753458</v>
+        <v>50385.00392753457</v>
       </c>
       <c r="J4" t="n">
         <v>50385.00392753457</v>
@@ -26447,7 +26447,7 @@
         <v>50385.00392753457</v>
       </c>
       <c r="L4" t="n">
-        <v>50385.00392753457</v>
+        <v>50385.00392753458</v>
       </c>
       <c r="M4" t="n">
         <v>50385.00392753457</v>
@@ -26456,10 +26456,10 @@
         <v>50385.00392753457</v>
       </c>
       <c r="O4" t="n">
-        <v>50385.00392753458</v>
+        <v>50385.00392753457</v>
       </c>
       <c r="P4" t="n">
-        <v>50385.00392753458</v>
+        <v>50385.00392753457</v>
       </c>
     </row>
     <row r="5">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>112585.1814899583</v>
+        <v>112585.1814899582</v>
       </c>
       <c r="C6" t="n">
         <v>95489.02789936028</v>
@@ -26530,40 +26530,40 @@
         <v>156065.3500860285</v>
       </c>
       <c r="E6" t="n">
-        <v>150970.2015994358</v>
+        <v>138752.1909793954</v>
       </c>
       <c r="F6" t="n">
-        <v>150970.2015994358</v>
+        <v>138752.1909793954</v>
       </c>
       <c r="G6" t="n">
-        <v>150970.2015994359</v>
+        <v>138752.1909793953</v>
       </c>
       <c r="H6" t="n">
-        <v>150970.2015994358</v>
+        <v>138752.1909793954</v>
       </c>
       <c r="I6" t="n">
-        <v>150970.2015994358</v>
+        <v>138752.1909793954</v>
       </c>
       <c r="J6" t="n">
-        <v>136968.9694591565</v>
+        <v>124750.9588391161</v>
       </c>
       <c r="K6" t="n">
-        <v>102713.2486658033</v>
+        <v>90495.23804576279</v>
       </c>
       <c r="L6" t="n">
-        <v>150970.2015994359</v>
+        <v>138752.1909793953</v>
       </c>
       <c r="M6" t="n">
-        <v>150970.2015994359</v>
+        <v>138752.1909793953</v>
       </c>
       <c r="N6" t="n">
-        <v>150970.2015994359</v>
+        <v>138752.1909793954</v>
       </c>
       <c r="O6" t="n">
-        <v>150970.2015994358</v>
+        <v>138752.1909793954</v>
       </c>
       <c r="P6" t="n">
-        <v>150970.2015994359</v>
+        <v>138752.1909793954</v>
       </c>
     </row>
   </sheetData>
@@ -27387,10 +27387,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>378.9153063463019</v>
       </c>
       <c r="F2" t="n">
-        <v>396.9849362740401</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>96.35658893119992</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27435,16 +27435,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>197.8331238978867</v>
       </c>
       <c r="V2" t="n">
         <v>274.2397294601852</v>
       </c>
       <c r="W2" t="n">
-        <v>295.7284397074633</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>316.2185716685193</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27463,19 +27463,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>93.93253655468899</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>98.68196816767798</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>83.83098815326088</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>58.72291522654671</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>46.64530514269338</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>118.1706420938881</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>146.6521996848718</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>179.5541378552689</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>222.8456210324931</v>
+        <v>170.5040690270225</v>
       </c>
       <c r="T4" t="n">
         <v>174.4330604183317</v>
       </c>
       <c r="U4" t="n">
-        <v>232.8065003465411</v>
+        <v>262.8785605261289</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>198.4610187396885</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>142.265735089176</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27703,10 +27703,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -27715,7 +27715,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,22 +27742,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>171.0220216300238</v>
       </c>
       <c r="V6" t="n">
-        <v>222.1117639103862</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27794,13 +27794,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>24.98494807699674</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,13 +27815,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>66.3759156176843</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>124.2586028933485</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>374.8264583819999</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>142.265735089176</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27934,13 +27934,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27955,7 +27955,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>32.32979199029731</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>181.9111112415787</v>
       </c>
     </row>
     <row r="10">
@@ -28025,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>153.1541244507528</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28034,7 +28034,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28067,7 +28067,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>175.4015535970057</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="M2" t="n">
-        <v>51.35040662570936</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="P2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34789,16 +34789,16 @@
         <v>53.51252900994975</v>
       </c>
       <c r="N3" t="n">
-        <v>51.35040662570935</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O3" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34944,7 +34944,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35020,19 +35020,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35184,7 +35184,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35257,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35424,7 +35424,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35497,10 +35497,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N12" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35509,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35658,7 +35658,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35734,16 +35734,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N15" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O15" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35968,13 +35968,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -36205,16 +36205,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N21" t="n">
-        <v>99.8112771299739</v>
-      </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N24" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36688,13 +36688,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>169.9091475161414</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -36931,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37156,19 +37156,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37390,13 +37390,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>161.1784674257276</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37624,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
@@ -37639,7 +37639,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37788,7 +37788,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37864,13 +37864,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -37879,7 +37879,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38101,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
